--- a/Examples/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Power-System-Analysis-Toolbox\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CF2708-80BA-45FD-B420-64368E2781E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0CB63F-FF49-4C49-81F8-CC4A7AAF187A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -237,20 +237,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,7 +259,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,7 +267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,7 +275,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,13 +283,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -317,13 +317,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,19 +610,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -654,7 +654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1147,34 +1147,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" customWidth="1"/>
+    <col min="2" max="2" width="29.53125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.46484375" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="18.796875" customWidth="1"/>
+    <col min="10" max="10" width="18.53125" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" customWidth="1"/>
+    <col min="13" max="13" width="14.46484375" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1367,24 +1367,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1432,18 +1432,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -1481,33 +1481,33 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>13</v>
       </c>
@@ -2011,17 +2011,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>45</v>
       </c>

--- a/Examples/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0CB63F-FF49-4C49-81F8-CC4A7AAF187A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14868B3-7624-4755-82C9-E305C0DB433A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
+    <sheet name="Bus" sheetId="1" r:id="rId1"/>
     <sheet name="Device" sheetId="3" r:id="rId2"/>
-    <sheet name="Basic" sheetId="4" r:id="rId3"/>
+    <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
-    <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
-    <sheet name="Advanced Setting" sheetId="6" r:id="rId6"/>
+    <sheet name="Basic" sheetId="4" r:id="rId5"/>
+    <sheet name="Advance" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,14 @@
   </si>
   <si>
     <t>Turns Ratio (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC or DC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -617,12 +625,12 @@
     <col min="10" max="10" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -653,8 +661,14 @@
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -685,8 +699,14 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -723,8 +743,14 @@
         <f>50/100</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -759,8 +785,14 @@
         <f>40/100</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -793,8 +825,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -827,8 +865,14 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -864,8 +908,14 @@
         <f>24/100</f>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -896,8 +946,14 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -931,8 +987,14 @@
         <f>24/100</f>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -965,8 +1027,14 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -999,8 +1067,14 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1033,8 +1107,14 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1067,8 +1147,14 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1101,8 +1187,14 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1134,6 +1226,12 @@
       </c>
       <c r="J16">
         <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1364,56 +1462,525 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1.9380000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>5.917E-2</v>
+      </c>
+      <c r="E6">
+        <f>0.0528</f>
+        <v>5.28E-2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5.4030000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.22303999999999999</v>
+      </c>
+      <c r="E7">
+        <f>0.0492</f>
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4.6989999999999997E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.19797000000000001</v>
+      </c>
+      <c r="E8">
+        <f>0.0438</f>
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>5.8110000000000002E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.17632</v>
+      </c>
+      <c r="E9">
+        <f>0.034</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5.6950000000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.17388000000000001</v>
+      </c>
+      <c r="E10">
+        <f>0.0346</f>
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>6.701E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.17102999999999999</v>
+      </c>
+      <c r="E11">
+        <f>0.0128</f>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.2110000000000002E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.20912</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.55618000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.25202000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="C16">
+        <v>9.4979999999999995E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <f>B3*1000/2</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.12291000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.25580999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>6.615E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.13027</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.17615</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.11001</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>3.1809999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0.12711</v>
+      </c>
+      <c r="D22">
+        <v>0.27038000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>8.2049999999999998E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.19206999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>0.22092000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.19988</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0.17093</v>
+      </c>
+      <c r="D25">
+        <v>0.34802</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
     </row>
@@ -1474,525 +2041,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.53125" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1.9380000000000001E-2</v>
-      </c>
-      <c r="D6">
-        <v>5.917E-2</v>
-      </c>
-      <c r="E6">
-        <f>0.0528</f>
-        <v>5.28E-2</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5.4030000000000002E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.22303999999999999</v>
-      </c>
-      <c r="E7">
-        <f>0.0492</f>
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4.6989999999999997E-2</v>
-      </c>
-      <c r="D8">
-        <v>0.19797000000000001</v>
-      </c>
-      <c r="E8">
-        <f>0.0438</f>
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>5.8110000000000002E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.17632</v>
-      </c>
-      <c r="E9">
-        <f>0.034</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>5.6950000000000001E-2</v>
-      </c>
-      <c r="D10">
-        <v>0.17388000000000001</v>
-      </c>
-      <c r="E10">
-        <f>0.0346</f>
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>6.701E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.17102999999999999</v>
-      </c>
-      <c r="E11">
-        <f>0.0128</f>
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>1.3350000000000001E-2</v>
-      </c>
-      <c r="D12">
-        <v>4.2110000000000002E-2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0.20912</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.97799999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0.55618000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.96899999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0.25202000000000002</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>9.4979999999999995E-2</v>
-      </c>
-      <c r="D16">
-        <v>0.19889999999999999</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>0.12291000000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.25580999999999998</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>6.615E-2</v>
-      </c>
-      <c r="D18">
-        <v>0.13027</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0.17615</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0.11001</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>3.1809999999999998E-2</v>
-      </c>
-      <c r="D21">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>0.12711</v>
-      </c>
-      <c r="D22">
-        <v>0.27038000000000001</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>8.2049999999999998E-2</v>
-      </c>
-      <c r="D23">
-        <v>0.19206999999999999</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>0.22092000000000001</v>
-      </c>
-      <c r="D24">
-        <v>0.19988</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <v>0.17093</v>
-      </c>
-      <c r="D25">
-        <v>0.34802</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="B2" s="1">
+        <f>B3*1000/2</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
@@ -2008,7 +2106,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2115,7 +2213,7 @@
         <v>45</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14868B3-7624-4755-82C9-E305C0DB433A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F890AA8C-A115-4ECA-AE5A-56112F202654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
